--- a/5. Evaluation/pamm/result_grid_search.xlsx
+++ b/5. Evaluation/pamm/result_grid_search.xlsx
@@ -472,7 +472,7 @@
         <v>496</v>
       </c>
       <c r="F2">
-        <v>1992106.188996969</v>
+        <v>2086794.506187052</v>
       </c>
     </row>
   </sheetData>
